--- a/src/scape/diadiem.xlsx
+++ b/src/scape/diadiem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOCKY8\DO_AN_TOT_NGHIEP\dev\ScapeData\model_cursor\src\scape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA5990-3F40-4539-A891-0F24DCFA259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1D40D5-6C5B-45AB-AD3C-9B0D7654CAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5D481351-B047-447E-A56F-CECAC2589BFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="788">
   <si>
     <t>id</t>
   </si>
@@ -119,25 +119,13 @@
     <t>là một công viên đô thị lớn nằm ngay trung tâm Quận 1, Thành phố Hồ Chí Minh, Việt Nam. Đây là một không gian xanh quan trọng, đóng vai trò như "lá phổi xanh" của thành phố, đồng thời mang ý nghĩa lịch sử sâu sắc và là điểm giao thông, văn hóa, giải trí sôi động.</t>
   </si>
   <si>
-    <t>Family Garden Quận 2</t>
-  </si>
-  <si>
     <t>là một điểm đến độc đáo mang phong cách "nông trại gia đình" giữa lòng đô thị sầm uất của Thành phố Hồ Chí Minh. Nơi đây được biết đến như một "hòn ngọc nông thôn" hay "Chiang Mai thu nhỏ" của Sài Gòn, mang đến không gian xanh mát và nhiều hoạt động trải nghiệm gần gũi với thiên nhiên.</t>
   </si>
   <si>
-    <t>Saigon Outcast Quận 2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> là một không gian cộng đồng - giải trí - văn hóa nghệ thuật độc đáo và rất "chất" tại Thành phố Hồ Chí Minh. Nơi đây được biết đến như một tụ điểm của giới trẻ, những người yêu nghệ thuật đường phố, và cả cộng đồng người nước ngoài sinh sống tại Sài Gòn.</t>
   </si>
   <si>
-    <t>Vincom Mega Mall Thảo Điền Quận 2</t>
-  </si>
-  <si>
     <t>là một trong những trung tâm thương mại (TTTM) quy mô lớn và hiện đại bậc nhất tại Thành phố Hồ Chí Minh. Nơi đây không chỉ là điểm đến mua sắm mà còn là tổ hợp giải trí, ẩm thực, đáp ứng mọi nhu cầu của cư dân và du khách, đặc biệt là cộng đồng người nước ngoài sinh sống tại Thảo Điền.</t>
-  </si>
-  <si>
-    <t>Công viên Sala Quận 2</t>
   </si>
   <si>
     <t>là một trong những công viên đô thị hiện đại và đẳng cấp bậc nhất tại Thành phố Hồ Chí Minh. Nơi đây được thiết kế không chỉ là một không gian xanh mát mà còn là điểm nhấn kiến trúc, mang đến trải nghiệm sống xanh, đẳng cấp cho cư dân và du khách.</t>
@@ -384,31 +372,16 @@
     <t>Peekaboo - Khu vui chơi Quận 7</t>
   </si>
   <si>
-    <t>Khu vui chơi phù hợp cho các bé từ 3 đến 5 tuổi. Peekaboo giúp các bé tự tin giao tiếp, phát triển các kỹ năng sống, sức sáng tạo, tưởng tượng,… với các chương trình học chuyên biệt. Hơn nữa, đây sẽ là sân chơi giúp các bé làm quen những người bạn mới, tăng khả năng kết bạn, giao lưu.</t>
-  </si>
-  <si>
     <t>Cầu Ánh Sao</t>
   </si>
   <si>
-    <t>là biểu tượng cho nhịp sống hiện đại, văn minh nơi đây. Sở dĩ gọi là cầu Ánh Sao bởi cây cầu sử dụng điện năng lượng mặt trời dự trữ.  Vì vậy, khi về đêm cây cầu tự động chiếu sáng, lấp lánh như những ánh sao rơi từ bầu trời xuống. Kết hợp cùng phun nước hai bên hông sẽ khiến cây cầu càng lung linh ảo diệu hơn</t>
-  </si>
-  <si>
     <t>Cầu Phú Mỹ</t>
   </si>
   <si>
-    <t>là điểm ngắm hoàng hôn cực đẹp. Bạn sẽ đắm chìm trong ánh nắng hoàng hôn dịu nhẹ, hòa cùng những làn xe qua lại tấp nập, giúp bạn cảm nhận được nhịp sống nơi đây.</t>
-  </si>
-  <si>
     <t>Khu vui chơi Quận 7 Lion King</t>
   </si>
   <si>
-    <t xml:space="preserve">các bé có thể thỏa sức vui chơi, giải trí lành mạnh. Lion King được nhiều du khách yêu thích bởi giá vé rẻ hơn so với các khu khác, hơn nữa các trò chơi cũng hiện đại và đa dạng không kém. </t>
-  </si>
-  <si>
     <t>Chợ đầu mối Bình Điền</t>
-  </si>
-  <si>
-    <t>là chợ đầu mối lớn nhất Việt Nam với quy mô lên đến 65ha, tập trung vô số mặt hàng từ thủy, hải sản, rau, củ, quả,... với số lượng lớn. Chất lượng hàng hóa tốt, giá thành hợp lý, bà con tiểu thương lại nhiệt tình</t>
   </si>
   <si>
     <t>Bến Bình Đông</t>
@@ -806,25 +779,1645 @@
   </si>
   <si>
     <t>có không gian nhỏ nên các bạn đặt bàn trước để không phải đợi lâu nhé. Chất lượng đồ ăn ổn, giá không quá đắt. Phục vụ đồ ăn khá nhanh. Nếu như nói đồ ăn thì steak ở đây đỉnh của chóp, thịt ăn vừa miệng không dai, mềm, nước sốt rất đậm đà.</t>
+  </si>
+  <si>
+    <t>loai_dia_diem(ví dụ: di tích lịch sử, bảo tàng, công viên, nhà hàng, khách sạn...)</t>
+  </si>
+  <si>
+    <t>khu_vucQuận/huyện (ví dụ: Quận 1, Quận 3...)</t>
+  </si>
+  <si>
+    <t>dia_chi(Địa chỉ chi tiết)</t>
+  </si>
+  <si>
+    <t>tu_khoaCác từ khóa liên quan (ví dụ: lịch sử, kiến trúc, ẩm thực...)</t>
+  </si>
+  <si>
+    <t>thoi_gian_hoat_dong(Thời gian mở cửa)</t>
+  </si>
+  <si>
+    <t>gia_ve(nếu có)</t>
+  </si>
+  <si>
+    <t>danh_giaĐánh giá từ người dùng (1-5 sao)</t>
+  </si>
+  <si>
+    <t>Di tích lịch sử</t>
+  </si>
+  <si>
+    <t>Quận 1</t>
+  </si>
+  <si>
+    <t>135 Nam Kỳ Khởi Nghĩa, phường Bến Thành, Quận 1</t>
+  </si>
+  <si>
+    <t>lịch sử, kiến trúc, chính trị, thống nhất</t>
+  </si>
+  <si>
+    <t>8:00 - 17:00 (thứ 2-chủ nhật)</t>
+  </si>
+  <si>
+    <t>65.000 VNĐ (người lớn), 15.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Chợ truyền thống</t>
+  </si>
+  <si>
+    <t>Lê Lợi, phường Bến Thành,</t>
+  </si>
+  <si>
+    <t>mua sắm, ẩm thực, văn hóa, quà lưu niệm</t>
+  </si>
+  <si>
+    <t>6:00 - 18:00 (chợ ngày), 19:00 - 23:00 (chợ</t>
+  </si>
+  <si>
+    <t>Miễn phí vào cửa</t>
+  </si>
+  <si>
+    <t>Bảo tàng</t>
+  </si>
+  <si>
+    <t>97A Phó Đức Chính, phường Nguyễn Thái Bình, Quận 1</t>
+  </si>
+  <si>
+    <t>nghệ thuật, hội họa, điêu khắc, văn hóa</t>
+  </si>
+  <si>
+    <t>9:00 - 17:00 (thứ 3-chủ nhật), đóng cửa</t>
+  </si>
+  <si>
+    <t>30.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Phố đi bộ</t>
+  </si>
+  <si>
+    <t>Đường Nguyễn Huệ, từ Lê Thánh Tôn đến Tôn Đức Thắng, Quận 1</t>
+  </si>
+  <si>
+    <t>giải trí, văn hóa, tản bộ, sự kiện</t>
+  </si>
+  <si>
+    <t>24/7</t>
+  </si>
+  <si>
+    <t>Miễn phí</t>
+  </si>
+  <si>
+    <t>Khu phố giải trí</t>
+  </si>
+  <si>
+    <t>Đường Bùi Viện, phường Phạm Ngũ Lão, Quận 1</t>
+  </si>
+  <si>
+    <t>nightlife, bar, nhà hàng, du khách nước ngoài</t>
+  </si>
+  <si>
+    <t>18:00 - 02:00 (hoạt động sôi nổi nhất)</t>
+  </si>
+  <si>
+    <t>Miễn phí vào phố</t>
+  </si>
+  <si>
+    <t>Nhà thờ</t>
+  </si>
+  <si>
+    <t>01 Công xã Paris, phường Bến Nghé, Quận 1</t>
+  </si>
+  <si>
+    <t>tôn giáo, kiến trúc Gothic, lịch sử</t>
+  </si>
+  <si>
+    <t>8:00 - 11:00, 15:00 - 16:00 (đang tu sửa)</t>
+  </si>
+  <si>
+    <t>Công viên/Bến thuyền</t>
+  </si>
+  <si>
+    <t>Tôn Đức Thắng, phường Bến Nghé, Quận 1</t>
+  </si>
+  <si>
+    <t>sông Sài Gòn, tàu thuyền, công viên, thư giãn</t>
+  </si>
+  <si>
+    <t>Phố sách</t>
+  </si>
+  <si>
+    <t>Đường Nguyễn Văn Bình (gần Công viên 30/4), Quận 1</t>
+  </si>
+  <si>
+    <t>sách, văn học, văn hóa, giáo dục</t>
+  </si>
+  <si>
+    <t>8:00 - 21:00</t>
+  </si>
+  <si>
+    <t>Trung tâm thương mại</t>
+  </si>
+  <si>
+    <t>72 Lê Thánh Tôn &amp; 45A Lý Tự Trọng, Quận 1</t>
+  </si>
+  <si>
+    <t>mua sắm, thời trang, ẩm thực, giải trí</t>
+  </si>
+  <si>
+    <t>9:30 - 22:00</t>
+  </si>
+  <si>
+    <t>Miễn phí vào TTTM</t>
+  </si>
+  <si>
+    <t>Bưu điện/Di tích</t>
+  </si>
+  <si>
+    <t>02 Công xã Paris, phường Bến Nghé, Quận 1</t>
+  </si>
+  <si>
+    <t>kiến trúc Pháp, lịch sử, bưu chính, du lịch</t>
+  </si>
+  <si>
+    <t>7:00 - 19:00 (thứ 2-thứ 6), 8:00 - 18:00 (thứ 7, CN)</t>
+  </si>
+  <si>
+    <t>Miễn phí tham quan</t>
+  </si>
+  <si>
+    <t>Tổ hợp thương mại</t>
+  </si>
+  <si>
+    <t>99 Nguyễn Huệ, phường Bến Nghé, Quận 1</t>
+  </si>
+  <si>
+    <t>không gian xanh, mua sắm, thư giãn, café</t>
+  </si>
+  <si>
+    <t>10:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Công viên</t>
+  </si>
+  <si>
+    <t>Phạm Ngũ Lão, phường Phạm Ngũ Lão, Quận 1</t>
+  </si>
+  <si>
+    <t>công viên, thể thao, thư giãn, không gian xanh</t>
+  </si>
+  <si>
+    <t>5:00 - 21:00</t>
+  </si>
+  <si>
+    <t>Family Garden</t>
+  </si>
+  <si>
+    <t>Khu vui chơi/Nông trại</t>
+  </si>
+  <si>
+    <t>Quận 2</t>
+  </si>
+  <si>
+    <t>Đường Nguyễn Duy Trinh, phường Bình Trưng Tây, Quận 2</t>
+  </si>
+  <si>
+    <t>nông trại, thiên nhiên, gia đình, trải nghiệm</t>
+  </si>
+  <si>
+    <t>8:00 - 17:00</t>
+  </si>
+  <si>
+    <t>50.000 - 100.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saigon Outcast </t>
+  </si>
+  <si>
+    <t>Bar/Không gian văn hóa</t>
+  </si>
+  <si>
+    <t>411 Võ Văn Kiệt, phường Cô Giang, Quận 1</t>
+  </si>
+  <si>
+    <t>bar, nghệ thuật, âm nhạc, cộng đồng</t>
+  </si>
+  <si>
+    <t>16:00 - 01:00</t>
+  </si>
+  <si>
+    <t>Miễn phí vào (phí đồ uống)</t>
+  </si>
+  <si>
+    <t>Vincom Mega Mall Thảo Điền</t>
+  </si>
+  <si>
+    <t>159 Xa lộ Hà Nội, phường Thảo Điền, Quận 2</t>
+  </si>
+  <si>
+    <t>mua sắm, ẩm thực, giải trí, rạp chiếu phim</t>
+  </si>
+  <si>
+    <t>Công viên Sala</t>
+  </si>
+  <si>
+    <t>Khu đô thị Sala, đường Nguyễn Cơ Thạch, phường An Lợi Đông, TP.Thủ Đức</t>
+  </si>
+  <si>
+    <t>công viên hiện đại, kiến trúc, không gian xanh, sống xanh</t>
+  </si>
+  <si>
+    <t>4:00 - 23:00</t>
+  </si>
+  <si>
+    <t>TP.Thủ Đức</t>
+  </si>
+  <si>
+    <t>Đường Nguyễn Cơ Thạch, phường An Lợi Đông, TP.Thủ Đức</t>
+  </si>
+  <si>
+    <t>giới trẻ, chiều tối, không gian công cộng, trendy</t>
+  </si>
+  <si>
+    <t>5:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Khu nghỉ dưỡng</t>
+  </si>
+  <si>
+    <t>Số 1 đường Trần Quý Kien, phường Bình Trưng Tây, TP.Thủ Đức</t>
+  </si>
+  <si>
+    <t>đảo tự nhiên, hoàng hôn, thả diều, thiên nhiên, nghỉ dưỡng</t>
+  </si>
+  <si>
+    <t>6:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Miễn phí tham quan khu vực công cộng</t>
+  </si>
+  <si>
+    <t>39 Đường số 7, phường Bình Trưng Tây, TP.Thủ Đức</t>
+  </si>
+  <si>
+    <t>container, Hàn Quốc, ẩm thực quốc tế, shopping</t>
+  </si>
+  <si>
+    <t>Miễn phí vào khu</t>
+  </si>
+  <si>
+    <t>Hồ bơi công cộng</t>
+  </si>
+  <si>
+    <t>Quận 3</t>
+  </si>
+  <si>
+    <t>28 Kỳ Đồng, phường 9, Quận 3</t>
+  </si>
+  <si>
+    <t>bơi lội, thể thao, công cộng, giải trí</t>
+  </si>
+  <si>
+    <t>5:30 - 21:00</t>
+  </si>
+  <si>
+    <t>30.000 - 50.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quận 10</t>
+  </si>
+  <si>
+    <t>34 Lê Thị Riêng, phường Bến Thành, Quận 1</t>
+  </si>
+  <si>
+    <t>công viên lớn, giải trí, không gian xanh, đa năng</t>
+  </si>
+  <si>
+    <t>Hồ công viên</t>
+  </si>
+  <si>
+    <t>Phường Võ Thị Sáu, Quận 3</t>
+  </si>
+  <si>
+    <t>hẹn hò, ăn vặt, giới trẻ, chiều tối</t>
+  </si>
+  <si>
+    <t>289 Hai Bà Trưng, phường Võ Thị Sáu, Quận 3</t>
+  </si>
+  <si>
+    <t>nhà thờ hồng, Gothic, kiến trúc Pháp, tôn giáo</t>
+  </si>
+  <si>
+    <t>5:30 - 11:30, 14:00 - 21:00</t>
+  </si>
+  <si>
+    <t>Nhà hàng</t>
+  </si>
+  <si>
+    <t>127/16 Cô Giang, phường Cô Giang, Quận 1</t>
+  </si>
+  <si>
+    <t>lẩu cá kèo, ẩm thực địa phương, đặc sản</t>
+  </si>
+  <si>
+    <t>16:00 - 23:00</t>
+  </si>
+  <si>
+    <t>80.000 - 150.000 VNĐ/người</t>
+  </si>
+  <si>
+    <t>160A Cống Quỳnh, phường Phạm Ngũ Lão, Quận 1</t>
+  </si>
+  <si>
+    <t>bún mọc, ẩm thực truyền thống, mọc đặc biệt</t>
+  </si>
+  <si>
+    <t>35.000 - 55.000 VNĐ/tô</t>
+  </si>
+  <si>
+    <t>Quán ăn vỉa hè</t>
+  </si>
+  <si>
+    <t>Đường Kỳ Đồng, phường 9, Quận 3</t>
+  </si>
+  <si>
+    <t>phá lấu, đường phố, ẩm thực vỉa hè</t>
+  </si>
+  <si>
+    <t>16:00 - 24:00</t>
+  </si>
+  <si>
+    <t>25.000 - 40.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quán ăn vặt</t>
+  </si>
+  <si>
+    <t>bánh tráng trộn, ăn vặt, topping đa dạng</t>
+  </si>
+  <si>
+    <t>15:00 - 23:00</t>
+  </si>
+  <si>
+    <t>15.000 - 25.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quán café</t>
+  </si>
+  <si>
+    <t>23 Kỳ Đồng, phường 9, Quận 3</t>
+  </si>
+  <si>
+    <t>coffee, sinh tố, không gian ấm cúng, thư giãn</t>
+  </si>
+  <si>
+    <t>7:00 - 23:00</t>
+  </si>
+  <si>
+    <t>25.000 - 65.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Cầu/Điểm tham quan</t>
+  </si>
+  <si>
+    <t>Quận 4</t>
+  </si>
+  <si>
+    <t>Cầu Mống, phường 18, Quận 4</t>
+  </si>
+  <si>
+    <t>check-in, hoàng hôn, bình minh, giới trẻ, lãng mạn</t>
+  </si>
+  <si>
+    <t>Bảo tàng/Di tích</t>
+  </si>
+  <si>
+    <t>1 Nguyễn Tất Thành, phường 12, Quận 4</t>
+  </si>
+  <si>
+    <t>lịch sử, bảo tàng, di tích, Bác Hồ</t>
+  </si>
+  <si>
+    <t>7:30 - 11:30, 13:30 - 17:00</t>
+  </si>
+  <si>
+    <t>15.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Chợ, Ẩm thực đường phố</t>
+  </si>
+  <si>
+    <t>92B/20 Tôn Thất Thuyết, P.16, Quận 4</t>
+  </si>
+  <si>
+    <t>ẩm thực, chợ, món ăn vặt</t>
+  </si>
+  <si>
+    <t>06:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Khu vui chơi trẻ em</t>
+  </si>
+  <si>
+    <t>Công viên Khánh Hội, Đường số 48, Q.4</t>
+  </si>
+  <si>
+    <t>trẻ em, giải trí, giáo dục</t>
+  </si>
+  <si>
+    <t>08:00 - 17:00</t>
+  </si>
+  <si>
+    <t>90.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Đường số 48, Phường 5, Quận 4</t>
+  </si>
+  <si>
+    <t>công viên, thư giãn, cây xanh</t>
+  </si>
+  <si>
+    <t>05:00 - 21:00</t>
+  </si>
+  <si>
+    <t>Nghệ thuật đường phố</t>
+  </si>
+  <si>
+    <t>Hẻm 64 Nguyễn Khoái, Phường 2, Quận 4</t>
+  </si>
+  <si>
+    <t>bích họa, nghệ thuật, sống ảo</t>
+  </si>
+  <si>
+    <t>Cả ngày</t>
+  </si>
+  <si>
+    <t>Dịch vụ du lịch</t>
+  </si>
+  <si>
+    <t>Bến Bạch Đằng, Quận 1 (đi qua Q.4)</t>
+  </si>
+  <si>
+    <t>du thuyền, sông Sài Gòn, ẩm thực</t>
+  </si>
+  <si>
+    <t>17:30 - 22:00</t>
+  </si>
+  <si>
+    <t>300.000 VNĐ+</t>
+  </si>
+  <si>
+    <t>Khu ẩm thực</t>
+  </si>
+  <si>
+    <t>Đường Vĩnh Khánh, Quận 4, TP.HCM</t>
+  </si>
+  <si>
+    <t>ốc, hải sản, ăn uống, Sài Gòn</t>
+  </si>
+  <si>
+    <t>Từ 16:00 đến khuya</t>
+  </si>
+  <si>
+    <t>Khu phố văn hóa</t>
+  </si>
+  <si>
+    <t>Quận 5</t>
+  </si>
+  <si>
+    <t>Quận 5, TP.HCM</t>
+  </si>
+  <si>
+    <t>người Hoa, văn hóa, ẩm thực Trung Hoa</t>
+  </si>
+  <si>
+    <t>Phố đêm, điểm tham quan</t>
+  </si>
+  <si>
+    <t>Đường Lương Nhữ Học, Quận 5, TP.HCM</t>
+  </si>
+  <si>
+    <t>đèn lồng, Trung Thu, lễ Tết, phố đêm</t>
+  </si>
+  <si>
+    <t>Từ 17:00 đến 22:00</t>
+  </si>
+  <si>
+    <t>Chợ ẩm thực</t>
+  </si>
+  <si>
+    <t>Chợ Thủ Đô, Quận 5, TP.HCM</t>
+  </si>
+  <si>
+    <t>ẩm thực, ăn vặt, chợ, Sài Gòn</t>
+  </si>
+  <si>
+    <t>Từ 08:00 đến 22:00</t>
+  </si>
+  <si>
+    <t>Khu giải trí, trung tâm thương mại</t>
+  </si>
+  <si>
+    <t>Parkson Hùng Vương, Quận 5, TP.HCM</t>
+  </si>
+  <si>
+    <t>bowling, trò chơi, giải trí, mua sắm</t>
+  </si>
+  <si>
+    <t>09:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Khoảng 50.000đ - 100.000đ/trò</t>
+  </si>
+  <si>
+    <t>Di tích lịch sử / Chùa</t>
+  </si>
+  <si>
+    <t>710 Nguyễn Trãi, Phường 11, Quận 5, TP.HCM</t>
+  </si>
+  <si>
+    <t>chùa, kiến trúc Trung Hoa, tôn giáo, văn hóa người Hoa</t>
+  </si>
+  <si>
+    <t>6:00 - 18:00</t>
+  </si>
+  <si>
+    <t>190 Hồng Bàng, Phường 12, Quận 5, TP.HCM</t>
+  </si>
+  <si>
+    <t>mua sắm, giải trí, ẩm thực, trung tâm thương mại</t>
+  </si>
+  <si>
+    <t>9:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Chợ / Trung tâm thương mại</t>
+  </si>
+  <si>
+    <t>An Dương Vương, Phường 9, Quận 5, TP.HCM</t>
+  </si>
+  <si>
+    <t>thời trang, mua sắm, chợ đầu mối, hàng hóa</t>
+  </si>
+  <si>
+    <t>Khu tổ hợp / Giải trí</t>
+  </si>
+  <si>
+    <t>Nguyễn Trãi, Phường 3, Quận 5, TP.HCM</t>
+  </si>
+  <si>
+    <t>giải trí, sống xanh, cafe ngoài trời, thư giãn</t>
+  </si>
+  <si>
+    <t>8:00 - 23:00</t>
+  </si>
+  <si>
+    <t>Tùy dịch vụ</t>
+  </si>
+  <si>
+    <t>Khu phố / Văn hóa</t>
+  </si>
+  <si>
+    <t>Khu vực đường Trần Hưng Đạo, Hải Thượng Lãn Ông, Quận 5, TP.HCM</t>
+  </si>
+  <si>
+    <t>người Hoa, văn hóa Trung Hoa, kiến trúc cổ, khu phố</t>
+  </si>
+  <si>
+    <t>Quận 6</t>
+  </si>
+  <si>
+    <t>57A Tháp Mười, Phường 2, Quận 6, TP.HCM</t>
+  </si>
+  <si>
+    <t>mua sắm, chợ, đặc sản, thực phẩm, quà lưu niệm</t>
+  </si>
+  <si>
+    <t>Chùa / Di tích lịch sử</t>
+  </si>
+  <si>
+    <t>887 Hồng Bàng, Phường 9, Quận 6, TP.HCM</t>
+  </si>
+  <si>
+    <t>chùa cổ, tôn giáo, di tích, Phật giáo</t>
+  </si>
+  <si>
+    <t>Chợ đồ cũ</t>
+  </si>
+  <si>
+    <t>Quận Tân Bình</t>
+  </si>
+  <si>
+    <t>Nghĩa Hòa, Phường 6, Quận Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>đồ cũ, second-hand, thời trang giá rẻ</t>
+  </si>
+  <si>
+    <t>7:00 - 17:00</t>
+  </si>
+  <si>
+    <t>Quận 7</t>
+  </si>
+  <si>
+    <t>02-04 Đường số 9, Tân Hưng, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>trẻ em, vui chơi, mô phỏng nghề nghiệp, giải trí</t>
+  </si>
+  <si>
+    <t>8:30 - 17:00</t>
+  </si>
+  <si>
+    <t>180.000 - 280.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Bảo tàng / Nghệ thuật</t>
+  </si>
+  <si>
+    <t>02-04 Đường số 9, KDC Him Lam, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>bảo tàng, nghệ thuật, tranh 3D, chụp ảnh, giải trí</t>
+  </si>
+  <si>
+    <t>9:00 - 18:00</t>
+  </si>
+  <si>
+    <t>200.000 VNĐ (người lớn) / 150.000 VNĐ (trẻ em)</t>
+  </si>
+  <si>
+    <t>1058 Nguyễn Văn Linh, Tân Phong, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>mua sắm, giải trí, phim, IMAX, 3D</t>
+  </si>
+  <si>
+    <t>Miễn phí (phí dịch vụ tính riêng)</t>
+  </si>
+  <si>
+    <t>101 Tôn Dật Tiên, Tân Phú, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>mua sắm, giải trí, trung tâm thương mại, sang trọng</t>
+  </si>
+  <si>
+    <t>Khu vui chơi thể thao</t>
+  </si>
+  <si>
+    <t>02-04 Đường số 9, Him Lam, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>thể thao, vận động, leo núi, nhảy, parkour, trẻ em</t>
+  </si>
+  <si>
+    <t>9:00 - 21:00</t>
+  </si>
+  <si>
+    <t>150.000 - 250.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Lầu 2, SC VivoCity, 1058 Nguyễn Văn Linh, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>trẻ em, học mà chơi, lego, tư duy, thể chất</t>
+  </si>
+  <si>
+    <t>80.000 - 150.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Tầng 3, Crescent Mall, 101 Tôn Dật Tiên, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>trẻ em, khu vui chơi, tô tượng, giải trí cuối tuần</t>
+  </si>
+  <si>
+    <t>9:30 - 21:30</t>
+  </si>
+  <si>
+    <t>70.000 - 120.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Khu vui chơi phù hợp cho các bé từ 3 đến 5 tuổi, giúp phát triển kỹ năng sống, giao tiếp, sáng tạo qua chương trình học chuyên biệt.</t>
+  </si>
+  <si>
+    <t>Tầng 4, SC VivoCity, 1058 Nguyễn Văn Linh, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>trẻ em, kỹ năng sống, học mà chơi, sáng tạo, giao tiếp</t>
+  </si>
+  <si>
+    <t>100.000 - 180.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Biểu tượng của Quận 7, cầu đi bộ chiếu sáng ban đêm bằng năng lượng mặt trời, kết hợp phun nước 2 bên tạo khung cảnh lung linh.</t>
+  </si>
+  <si>
+    <t>Cảnh đẹp - Check-in</t>
+  </si>
+  <si>
+    <t>Phú Mỹ Hưng, Tân Phú, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>cầu đi bộ, ánh sáng, check-in, phun nước, đêm</t>
+  </si>
+  <si>
+    <t>Tự do, nên đi buổi tối</t>
+  </si>
+  <si>
+    <t>Cầu dây văng nổi tiếng nối Quận 2 và Quận 7, là nơi ngắm hoàng hôn cực đẹp và cảm nhận nhịp sống đô thị Sài Gòn.</t>
+  </si>
+  <si>
+    <t>Cảnh đẹp - Ngắm cảnh</t>
+  </si>
+  <si>
+    <t>Nối từ Quận 7 sang Quận 2, TP.HCM</t>
+  </si>
+  <si>
+    <t>cầu dây văng, ngắm cảnh, hoàng hôn, thành phố</t>
+  </si>
+  <si>
+    <t>Tự do</t>
+  </si>
+  <si>
+    <t>Khu vui chơi giá rẻ với trò chơi đa dạng, hiện đại phù hợp với trẻ em và được nhiều phụ huynh lựa chọn.</t>
+  </si>
+  <si>
+    <t>Tầng trệt, Lotte Mart Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>trẻ em, vui chơi, giá rẻ, hiện đại, gia đình</t>
+  </si>
+  <si>
+    <t>9:00 - 21:30</t>
+  </si>
+  <si>
+    <t>50.000 - 100.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Chợ đầu mối lớn nhất Việt Nam với hàng hóa số lượng lớn như thủy sản, rau quả, giá tốt và quy mô lên đến 65ha.</t>
+  </si>
+  <si>
+    <t>Chợ đầu mối</t>
+  </si>
+  <si>
+    <t>Quận 8 (gần Quận 7)</t>
+  </si>
+  <si>
+    <t>Khu phố 6, P.7, Quận 8, TP.HCM</t>
+  </si>
+  <si>
+    <t>chợ đầu mối, thực phẩm, bán sỉ, rau củ, thủy sản</t>
+  </si>
+  <si>
+    <t>Từ 2:00 sáng - 11:00 trưa</t>
+  </si>
+  <si>
+    <t>Tùy mặt hàng</t>
+  </si>
+  <si>
+    <t>Chợ hoa - Điểm tết</t>
+  </si>
+  <si>
+    <t>Quận 8</t>
+  </si>
+  <si>
+    <t>Bến Bình Đông, Phường 14, Quận 8, TP.HCM</t>
+  </si>
+  <si>
+    <t>hoa xuân, cây cảnh, tết, chợ hoa, thuyền hoa</t>
+  </si>
+  <si>
+    <t>6:00 - 22:00 (dịp Tết)</t>
+  </si>
+  <si>
+    <t>Chùa - Di tích</t>
+  </si>
+  <si>
+    <t>360 Cách Mạng Tháng 8, Phường 10, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>chùa, phật giáo, thanh tịnh, cổ kính, hành hương</t>
+  </si>
+  <si>
+    <t>Karaoke - Giải trí</t>
+  </si>
+  <si>
+    <t>Nhiều chi nhánh tại TP.HCM</t>
+  </si>
+  <si>
+    <t>152A Pasteur, Bến Nghé, Quận 1, TP.HCM (chi nhánh chính)</t>
+  </si>
+  <si>
+    <t>karaoke, hát hò, giải trí, âm thanh, chiếu sáng</t>
+  </si>
+  <si>
+    <t>10:00 - 2:00 sáng</t>
+  </si>
+  <si>
+    <t>120.000 - 300.000 VNĐ/giờ</t>
+  </si>
+  <si>
+    <t>Chùa - Kỷ lục</t>
+  </si>
+  <si>
+    <t>24/2B An Dương Vương, Phường 16, Quận 8, TP.HCM</t>
+  </si>
+  <si>
+    <t>chùa, miểng sành, kỷ lục, điêu khắc, Phật giáo</t>
+  </si>
+  <si>
+    <t>469 Nguyễn Hữu Thọ, Tân Hưng, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>mua sắm, ăn uống, giải trí, Lotte, plaza</t>
+  </si>
+  <si>
+    <t>8:30 - 22:00</t>
+  </si>
+  <si>
+    <t>Kiến trúc - Căn hộ</t>
+  </si>
+  <si>
+    <t>1002 Tạ Quang Bửu, Phường 6, Quận 8, TP.HCM</t>
+  </si>
+  <si>
+    <t>chung cư, kiến trúc châu Âu, sang trọng, cổ điển, sống ảo</t>
+  </si>
+  <si>
+    <t>Cư dân: 24/24 - Tham quan: 8:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Miễn phí (khu vực công cộng)</t>
+  </si>
+  <si>
+    <t>Chùa - Tâm linh</t>
+  </si>
+  <si>
+    <t>1125 Phạm Thế Hiển, Phường 5, Quận 8, TP.HCM</t>
+  </si>
+  <si>
+    <t>chùa, xá lợi Phật, tâm linh, linh thiêng, phật giáo</t>
+  </si>
+  <si>
+    <t>Ẩm thực - Nhà hàng</t>
+  </si>
+  <si>
+    <t>7H Bùi Minh Trực, Phường 5, Quận 8, TP.HCM</t>
+  </si>
+  <si>
+    <t>nhà hàng, món quê, đồng quê, dân dã, đặc sản</t>
+  </si>
+  <si>
+    <t>100.000 - 250.000 VNĐ/người</t>
+  </si>
+  <si>
+    <t>Ẩm thực - Đặc sản vùng miền</t>
+  </si>
+  <si>
+    <t>23 Đường số 10, Phường 4, Quận 8, TP.HCM</t>
+  </si>
+  <si>
+    <t>Quảng Ngãi, đặc sản, cơm gà, mì quảng, bánh bèo</t>
+  </si>
+  <si>
+    <t>40.000 - 90.000 VNĐ/món</t>
+  </si>
+  <si>
+    <t>Ẩm thực - Món Hàn</t>
+  </si>
+  <si>
+    <t>159 Dương Bá Trạc, Phường 1, Quận 8, TP.HCM</t>
+  </si>
+  <si>
+    <t>mì cay, món Hàn, cơm trộn, tokbokki, cay nồng</t>
+  </si>
+  <si>
+    <t>10:00 - 22:30</t>
+  </si>
+  <si>
+    <t>50.000 - 120.000 VNĐ/món</t>
+  </si>
+  <si>
+    <t>Ẩm thực - Quán ốc</t>
+  </si>
+  <si>
+    <t>Đường Dương Bá Trạc, Phường 1, Quận 8, TP.HCM</t>
+  </si>
+  <si>
+    <t>ốc, hải sản, quán bình dân, nướng muối ớt, hàu phô mai</t>
+  </si>
+  <si>
+    <t>50.000 - 150.000 VNĐ/người</t>
+  </si>
+  <si>
+    <t>Ẩm thực - Cháo</t>
+  </si>
+  <si>
+    <t>32 Dạ Nam, Phường 2, Quận 8, TP.HCM</t>
+  </si>
+  <si>
+    <t>cháo trắng, lá dứa, món ăn kèm, quán bình dân</t>
+  </si>
+  <si>
+    <t>17:00 - 22:00</t>
+  </si>
+  <si>
+    <t>15.000 - 50.000 VNĐ/phần</t>
+  </si>
+  <si>
+    <t>Công viên - Khu phức hợp</t>
+  </si>
+  <si>
+    <t>Quận 9</t>
+  </si>
+  <si>
+    <t>Nguyễn Xiển, Phường Long Bình, Quận 9, TP.HCM</t>
+  </si>
+  <si>
+    <t>công viên, khu vui chơi, biển hồ, giải trí, công viên nước</t>
+  </si>
+  <si>
+    <t>7:00 - 21:00</t>
+  </si>
+  <si>
+    <t>Miễn phí hoặc tùy dịch vụ</t>
+  </si>
+  <si>
+    <t>Cắm trại - Vui chơi ngoài trời</t>
+  </si>
+  <si>
+    <t>86 Đường số 1, Phường Long Thạnh Mỹ, Quận 9, TP.HCM</t>
+  </si>
+  <si>
+    <t>glamping, BBQ, lửa trại, cắm trại, vui chơi ngoài trời</t>
+  </si>
+  <si>
+    <t>8:00 - 22:00</t>
+  </si>
+  <si>
+    <t>150.000 - 350.000 VNĐ/người</t>
+  </si>
+  <si>
+    <t>Văn hóa - Bảo tàng</t>
+  </si>
+  <si>
+    <t>206/19/30 Long Thuận, Phường Long Phước, Quận 9, TP.HCM</t>
+  </si>
+  <si>
+    <t>bảo tàng, áo dài, truyền thống, triển lãm, nghệ thuật</t>
+  </si>
+  <si>
+    <t>8:00 - 17:00 (Thứ 3 - Chủ nhật)</t>
+  </si>
+  <si>
+    <t>30.000 - 50.000 VNĐ/người</t>
+  </si>
+  <si>
+    <t>Sinh thái - Dã ngoại</t>
+  </si>
+  <si>
+    <t>Tam Đa, Phường Trường Thạnh, Quận 9, TP.HCM</t>
+  </si>
+  <si>
+    <t>chụp ảnh, câu cá, sen, dã ngoại, thư giãn</t>
+  </si>
+  <si>
+    <t>Tôn giáo - Chùa</t>
+  </si>
+  <si>
+    <t>81 Nguyễn Xiển, Phường Long Bình, Quận 9, TP.HCM</t>
+  </si>
+  <si>
+    <t>chùa, Thái Lan, bảo tháp vàng, tâm linh, thanh tịnh</t>
+  </si>
+  <si>
+    <t>7:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Văn hóa - Lịch sử</t>
+  </si>
+  <si>
+    <t>Công viên Lịch sử Văn hóa Dân tộc, Phường Long Bình, Quận 9, TP.HCM</t>
+  </si>
+  <si>
+    <t>vua Hùng, đền thờ, văn hóa, lịch sử, Đông Sơn</t>
+  </si>
+  <si>
+    <t>Thể thao - Giải trí</t>
+  </si>
+  <si>
+    <t>Đường D1, Phường Phước Long B, Quận 9, TP.HCM</t>
+  </si>
+  <si>
+    <t>trượt ván, patin, skatepark, giới trẻ, thể thao</t>
+  </si>
+  <si>
+    <t>Miễn phí hoặc thu theo giờ (20.000 - 50.000 VNĐ)</t>
+  </si>
+  <si>
+    <t>Cù lao Phước Long, Quận 9, TP.HCM (gần sông Đồng Nai)</t>
+  </si>
+  <si>
+    <t>chùa, cù lao, Đồng Nai, cổ kính, linh thiêng</t>
+  </si>
+  <si>
+    <t>Thành phố Thủ Đức (Quận 9 cũ)</t>
+  </si>
+  <si>
+    <t>Số 1, Đường N1, KĐT Vinhomes Grand Park, Phường Long Bình, TP. Thủ Đức, TP.HCM</t>
+  </si>
+  <si>
+    <t>trung tâm thương mại, mua sắm, park-in-mall, rạp phim, khu vui chơi, ẩm thực</t>
+  </si>
+  <si>
+    <t>Miễn phí (tùy dịch vụ)</t>
+  </si>
+  <si>
+    <t>Phường Long Phước, TP. Thủ Đức, TP.HCM</t>
+  </si>
+  <si>
+    <t>nhà vườn, miệt vườn, dã ngoại, picnic, bắn cung, chèo thuyền</t>
+  </si>
+  <si>
+    <t>30.000 - 70.000 VNĐ/người</t>
+  </si>
+  <si>
+    <t>Giáo dục - Trải nghiệm</t>
+  </si>
+  <si>
+    <t>Phường Long Thạnh Mỹ, TP. Thủ Đức, TP.HCM</t>
+  </si>
+  <si>
+    <t>nông trại, động vật, trẻ em, thú cưng, học tập, trải nghiệm</t>
+  </si>
+  <si>
+    <t>8:00 - 17:30</t>
+  </si>
+  <si>
+    <t>60.000 - 100.000 VNĐ/người</t>
+  </si>
+  <si>
+    <t>Glamping - Cắm trại</t>
+  </si>
+  <si>
+    <t>glamping, cắm trại, cao bồi, BBQ, đêm nhạc, thư giãn</t>
+  </si>
+  <si>
+    <t>Cả ngày (theo lịch đặt)</t>
+  </si>
+  <si>
+    <t>300.000 - 800.000 VNĐ/người (tùy gói)</t>
+  </si>
+  <si>
+    <t>11 Sư Vạn Hạnh, Phường 12, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>mua sắm, rạp phim, vui chơi, ăn uống, trung tâm thương mại</t>
+  </si>
+  <si>
+    <t>Công viên giải trí</t>
+  </si>
+  <si>
+    <t>875 Cách Mạng Tháng 8, Phường 15, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>khu vui chơi, thiếu nhi, trò chơi, cà phê, sống ảo, công viên</t>
+  </si>
+  <si>
+    <t>20.000 - 50.000 VNĐ (tùy trò chơi)</t>
+  </si>
+  <si>
+    <t>Chợ - Mua sắm</t>
+  </si>
+  <si>
+    <t>Đường Nhật Tảo, Phường 7, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>chợ đồ cũ, mua sắm, sưu tầm, hàng điện tử, hiếm, chất lượng</t>
+  </si>
+  <si>
+    <t>41 Hoàng Dư Khương, Phường 12, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>y học cổ truyền, bảo tàng, văn hóa, lịch sử, hiện vật</t>
+  </si>
+  <si>
+    <t>8:00 - 17:00 (trừ chủ nhật)</t>
+  </si>
+  <si>
+    <t>40.000 VNĐ/người lớn, 20.000 VNĐ/trẻ em</t>
+  </si>
+  <si>
+    <t>244 Đường 3 Tháng 2, Phường 12, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>chùa, thiền, tâm linh, Phật giáo, yên bình, thanh tịnh</t>
+  </si>
+  <si>
+    <t>6:00 - 20:00</t>
+  </si>
+  <si>
+    <t>Nhà hát - Văn hóa</t>
+  </si>
+  <si>
+    <t>240 Đường 3 Tháng 2, Phường 12, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>nhà hát, biểu diễn, nghệ thuật, sự kiện, lịch sử, văn hóa</t>
+  </si>
+  <si>
+    <t>Theo sự kiện</t>
+  </si>
+  <si>
+    <t>Tùy chương trình</t>
+  </si>
+  <si>
+    <t>52 Hồ Thị Kỷ, Phường 1, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>chợ ăn vặt, món Campuchia, trà dâu, đồ nướng, xiên que</t>
+  </si>
+  <si>
+    <t>công viên, tập thể dục, cây xanh, vui chơi, dạo mát</t>
+  </si>
+  <si>
+    <t>3C Đường 3 Tháng 2, Phường 11, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>mua sắm, thời trang, rạp phim, siêu thị, gym</t>
+  </si>
+  <si>
+    <t>Triển lãm - bảo tàng</t>
+  </si>
+  <si>
+    <t>Lầu 2 và lầu 4 Nhà hát Hòa Bình, 240 Đường 3 Tháng 2, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>tượng sáp, triển lãm, nghệ nhân, người nổi tiếng, bảo tàng</t>
+  </si>
+  <si>
+    <t>80.000 - 120.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Nhà hàng - quán ăn</t>
+  </si>
+  <si>
+    <t>285/94A Cách Mạng Tháng 8, Phường 12, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>món miền Trung, Hội An, đặc sản, quán ăn, đẹp mắt</t>
+  </si>
+  <si>
+    <t>Quán ăn</t>
+  </si>
+  <si>
+    <t>TP.HCM</t>
+  </si>
+  <si>
+    <t>Số 409 Nguyễn Thị Thập, Quận 7, TP.HCM</t>
+  </si>
+  <si>
+    <t>bún đậu, mắm tôm, chả cốm, đậu hủ, món Bắc</t>
+  </si>
+  <si>
+    <t>10:00 - 21:00</t>
+  </si>
+  <si>
+    <t>40.000 - 80.000 VNĐ</t>
+  </si>
+  <si>
+    <t>484 Nguyễn Tri Phương, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>bánh canh cua, món gia truyền, nước lèo ngọt, cua tươi</t>
+  </si>
+  <si>
+    <t>45.000 - 90.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quán chè</t>
+  </si>
+  <si>
+    <t>283/24 Phạm Văn Hai, Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>chè sinh viên, chè rẻ, quán vỉa hè, món ngọt</t>
+  </si>
+  <si>
+    <t>10.000 - 25.000 VNĐ</t>
+  </si>
+  <si>
+    <t>35 Nguyễn Tri Phương, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>trái cây tô, ăn vặt, cơm dừa, sinh viên, đồ ngọt</t>
+  </si>
+  <si>
+    <t>20.000 - 35.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quận 11</t>
+  </si>
+  <si>
+    <t>3 Hòa Bình, Phường 3, Quận 11, TP.HCM</t>
+  </si>
+  <si>
+    <t>công viên, đầm sen, trò chơi, vui chơi, công viên nước</t>
+  </si>
+  <si>
+    <t>80.000 - 160.000 VNĐ</t>
+  </si>
+  <si>
+    <t>968 Ba Tháng Hai, Phường 15, Quận 11, TP.HCM</t>
+  </si>
+  <si>
+    <t>lotte mart, trung tâm mua sắm, quận 11, thời trang, siêu thị</t>
+  </si>
+  <si>
+    <t>Miễn phí vào cổng</t>
+  </si>
+  <si>
+    <t>Số 62, đường Đặng Minh Trứ, Phường 10, Quận 11, TP.HCM</t>
+  </si>
+  <si>
+    <t>kizworld, hướng nghiệp, trẻ em, vui chơi, kỹ năng sống</t>
+  </si>
+  <si>
+    <t>Nhà thi đấu</t>
+  </si>
+  <si>
+    <t>01 Lữ Gia, Phường 15, Quận 11, TP.HCM</t>
+  </si>
+  <si>
+    <t>nhà thi đấu, sự kiện, thể thao, hội chợ, triển lãm</t>
+  </si>
+  <si>
+    <t>Theo từng sự kiện</t>
+  </si>
+  <si>
+    <t>Số 215A Lý Thường Kiệt, Phường 15, Quận 11, TP.HCM</t>
+  </si>
+  <si>
+    <t>bơi lội, hồ bơi, thể thao, giải trí, quận 11</t>
+  </si>
+  <si>
+    <t>5:30 - 19:00</t>
+  </si>
+  <si>
+    <t>20.000 - 50.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Tầng 3, TTTM Lotte Mart Quận 11, TP.HCM</t>
+  </si>
+  <si>
+    <t>vui chơi, trẻ em, nhà banh, khu vui chơi, quận 11</t>
+  </si>
+  <si>
+    <t>50.000 - 120.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quán cà phê</t>
+  </si>
+  <si>
+    <t>45B Hồ Xuân Hương, Phường 6, Quận 3, TP.HCM</t>
+  </si>
+  <si>
+    <t>cafe, hoa tươi, thư giãn, quán đẹp, sống ảo</t>
+  </si>
+  <si>
+    <t>7:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Khoảng 35.000 - 60.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Nhiều chi nhánh - TP.HCM</t>
+  </si>
+  <si>
+    <t>91 Đồng Khởi, Quận 1, TP.HCM (chi nhánh tiêu biểu)</t>
+  </si>
+  <si>
+    <t>katinat, cafe đẹp, trà sữa, bánh ngọt, làm việc</t>
+  </si>
+  <si>
+    <t>7:00 - 22:30</t>
+  </si>
+  <si>
+    <t>40.000 - 70.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quán ăn sáng</t>
+  </si>
+  <si>
+    <t>303 Trần Phú, Phường 8, Quận 5, TP.HCM</t>
+  </si>
+  <si>
+    <t>phở, phở bò, người Hoa, bò viên, ăn sáng</t>
+  </si>
+  <si>
+    <t>6:00 - 11:00</t>
+  </si>
+  <si>
+    <t>50.000 - 60.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quán cháo</t>
+  </si>
+  <si>
+    <t>104 Hồ Bá Kiện, Phường 15, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>cháo sườn, cháo ngon, đóng gói, đậm đà, topping đa dạng</t>
+  </si>
+  <si>
+    <t>Số 2 Lữ Gia, Phường 15, Quận 11, TP.HCM</t>
+  </si>
+  <si>
+    <t>bún bò, bún bò Huế, ẩm thực miền Trung, quận 11</t>
+  </si>
+  <si>
+    <t>6:00 - 21:00</t>
+  </si>
+  <si>
+    <t>40.000 - 60.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quán ăn người Hoa</t>
+  </si>
+  <si>
+    <t>195 Hà Tôn Quyền, Phường 4, Quận 11, TP.HCM</t>
+  </si>
+  <si>
+    <t>sủi cảo, người Hoa, Hà Tôn Quyền, ăn đêm, quận 11</t>
+  </si>
+  <si>
+    <t>17:00 - 23:00</t>
+  </si>
+  <si>
+    <t>Quán ăn bình dân</t>
+  </si>
+  <si>
+    <t>174 Vĩnh Viễn, Phường 4, Quận 10, TP.HCM</t>
+  </si>
+  <si>
+    <t>hủ tiếu, ăn sáng, mì hoành thánh, bún gạo, quận 10</t>
+  </si>
+  <si>
+    <t>6:00 - 13:00 | 17:00 - 21:00</t>
+  </si>
+  <si>
+    <t>30.000 - 45.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Trung tâm thương mại / Địa điểm check-in</t>
+  </si>
+  <si>
+    <t>Quận Bình Thạnh</t>
+  </si>
+  <si>
+    <t>720A Điện Biên Phủ, Phường 22, Bình Thạnh, TP.HCM</t>
+  </si>
+  <si>
+    <t>Landmark 81, Vincom, skyview, check-in, VinGroup</t>
+  </si>
+  <si>
+    <t>Miễn phí (tùy khu vực có phí)</t>
+  </si>
+  <si>
+    <t>Công viên đô thị</t>
+  </si>
+  <si>
+    <t>208 Nguyễn Hữu Cảnh, Phường 22, Bình Thạnh, TP.HCM</t>
+  </si>
+  <si>
+    <t>công viên, picnic, sống ảo, view Landmark 81, miễn phí</t>
+  </si>
+  <si>
+    <t>Không gian sáng tạo / Văn hoá nghệ thuật</t>
+  </si>
+  <si>
+    <t>42 Nguyễn Huệ, Phường Bến Nghé, Quận 1, TP.HCM</t>
+  </si>
+  <si>
+    <t>art hub, studio, sách, workshop, triển lãm, sáng tạo</t>
+  </si>
+  <si>
+    <t>Tùy hoạt động (đa số miễn phí hoặc 50.000 - 200.000 VNĐ)</t>
+  </si>
+  <si>
+    <t>Khu du lịch sinh thái</t>
+  </si>
+  <si>
+    <t>Bình Thạnh</t>
+  </si>
+  <si>
+    <t>48/10 Điện Biên Phủ, Phường 22, Quận Bình Thạnh, TP.HCM</t>
+  </si>
+  <si>
+    <t>du lịch, Văn Thánh, hồ bơi, sân tennis, view sông</t>
+  </si>
+  <si>
+    <t>Miễn phí vào cổng (dịch vụ tính phí)</t>
+  </si>
+  <si>
+    <t>Khu du lịch - Nhà hàng ven sông</t>
+  </si>
+  <si>
+    <t>A100 Ung Văn Khiêm, Phường 25, Quận Bình Thạnh, TP.HCM</t>
+  </si>
+  <si>
+    <t>Tân Cảng, nhà hàng ven sông, họp mặt, du lịch, Bình Thạnh</t>
+  </si>
+  <si>
+    <t>1147 Bình Quới, Phường 28, Quận Bình Thạnh, TP.HCM</t>
+  </si>
+  <si>
+    <t>Bình Quới 2, hồ sen, phòng nghỉ, gia đình, thiên nhiên</t>
+  </si>
+  <si>
+    <t>Miễn phí vào cổng, buffet 250.000 - 300.000 VNĐ/người</t>
+  </si>
+  <si>
+    <t>Bình Quới 1, họp mặt, buffet, cảnh quê, thiên nhiên</t>
+  </si>
+  <si>
+    <t>Miễn phí vào cổng, buffet khoảng 250.000 VNĐ/người</t>
+  </si>
+  <si>
+    <t>Di tích lịch sử - Văn hóa</t>
+  </si>
+  <si>
+    <t>1 Vũ Tùng, Phường 1, Quận Bình Thạnh, TP.HCM</t>
+  </si>
+  <si>
+    <t>Lăng Ông, Lê Văn Duyệt, di tích, văn hóa, chụp ảnh</t>
+  </si>
+  <si>
+    <t>40 Diên Hồng, Phường 1, Quận Bình Thạnh, TP.HCM</t>
+  </si>
+  <si>
+    <t>chợ, Bà Chiểu, ẩm thực, đồ si, giá rẻ, đông đúc</t>
+  </si>
+  <si>
+    <t>5:00 - 20:00</t>
+  </si>
+  <si>
+    <t>Phú Nhuận</t>
+  </si>
+  <si>
+    <t>135/1 Nguyễn Văn Trỗi, Phường 11, Quận Phú Nhuận, TP.HCM</t>
+  </si>
+  <si>
+    <t>cafe, sống ảo, decor, 2PM, Phú Nhuận</t>
+  </si>
+  <si>
+    <t>30.000 - 60.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Quán cà phê sách</t>
+  </si>
+  <si>
+    <t>45/9A Nguyễn Cửu Vân, Phường 17, Quận Bình Thạnh, TP.HCM</t>
+  </si>
+  <si>
+    <t>cafe sách, Amhaus, tone trắng xanh, yên tĩnh</t>
+  </si>
+  <si>
+    <t>35.000 - 65.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Tân Bình</t>
+  </si>
+  <si>
+    <t>54 Nguyễn Minh Hoàng, Phường 12, Quận Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>cafe Hàn Quốc, Jeju, sống ảo, kính, cây xanh</t>
+  </si>
+  <si>
+    <t>Nhà hàng hải sản</t>
+  </si>
+  <si>
+    <t>1019B Bình Quới, Phường 28, Quận Bình Thạnh, TP.HCM</t>
+  </si>
+  <si>
+    <t>nhà hàng, hải sản, cua, Phong Cua, view sông</t>
+  </si>
+  <si>
+    <t>200.000 - 500.000 VNĐ/người</t>
+  </si>
+  <si>
+    <t>nhà hàng, cua, hải sản, view sông, Bình Quới</t>
+  </si>
+  <si>
+    <t>10h00 - 22h00</t>
+  </si>
+  <si>
+    <t>200.000 - 500.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Khu du lịch Bến Xưa</t>
+  </si>
+  <si>
+    <t>là địa điểm du lịch đặc sắc tọa lạc giữa lòng Sài Gòn tấp nập, quận 12. Với vị trí đẹp, nằm kế con sông Vàm Thuật, bao quanh là tán cây xanh mướt, không gian nơi đây là điểm thư giãn lý tưởng với những ai tìm kiếm sự yên tĩnh sau những ngày vội vã giữa thành phố xô bồ. là một địa điểm có nhiều nhà hàng và dịch vụ ăn uống sang trọng, nổi tiếng với hương vị thơm ngon thuần Việt.</t>
+  </si>
+  <si>
+    <t>Khu du lịch</t>
+  </si>
+  <si>
+    <t>Quận 12</t>
+  </si>
+  <si>
+    <t>39A Hà Huy Giáp, Thạnh Lộc, Quận 12, TP.Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>du lịch, nhà hàng, Bến Xưa, sông Vàm Thuật, Quận 12</t>
+  </si>
+  <si>
+    <t>07h00 - 21h00</t>
+  </si>
+  <si>
+    <t>328.000 đồng</t>
+  </si>
+  <si>
+    <t>Tu viện Khánh An</t>
+  </si>
+  <si>
+    <t>là 1 trong những ngôi chùa lớn tại quận 12, được thiết kế theo kiến trúc chùa Nhật Bản vô cùng độc đáo và thú vị, thu hút nhiều khách du lịch ghé thăm. Bao quanh là những công trình kiến trúc Phật Giáo được chạm khắc và thiết kế vô cùng công phu, nghệ thuật với chất liệu chủ yếu đến từ gỗ. Ngoài ra quanh ngôi chùa là hàng cây xanh mát, mang lại người ghé thăm một cảm giác thanh tịnh, an yên, giúp gột bỏ những bộn bề thường nhật phía sau.</t>
+  </si>
+  <si>
+    <t>Chùa / Tu viện</t>
+  </si>
+  <si>
+    <t>3D Quốc lộ 1A, Phường An Phú Đông, Quận 12, TP.HCM</t>
+  </si>
+  <si>
+    <t>chùa, tu viện, Khánh An, kiến trúc Nhật, yên tĩnh</t>
+  </si>
+  <si>
+    <t>05h00 - 21h00</t>
+  </si>
+  <si>
+    <t>Làng cá sấu</t>
+  </si>
+  <si>
+    <t>Nơi đây có không gian xanh mướt vườn cây đậm chất làng quê Miền Tây, cùng những trang trại nuôi nhốt cá sấu vô cùng thú vị. Ngoài ra ở đây còn có nhiều khu mái là với các dịch vụ nhà hàng và cửa tiệm lưu niệm lớn nhỏ khác nhau, bán các sản phẩm đến từ cá sấu.</t>
+  </si>
+  <si>
+    <t>Khu tham quan - trải nghiệm</t>
+  </si>
+  <si>
+    <t>Đường Nguyễn Thị Sáu, Thạnh Lộc, Quận 12, TP.HCM</t>
+  </si>
+  <si>
+    <t>làng cá sấu, cá sấu, sản phẩm lưu niệm, miền Tây</t>
+  </si>
+  <si>
+    <t>08h00 - 20h00</t>
+  </si>
+  <si>
+    <t>Khu tưởng niệm Vườn Cau Đỏ</t>
+  </si>
+  <si>
+    <t>là điểm đến tham quan mang đậm giá trị lịch sử kháng chiến giành lại độc lập của dân tộc Việt Nam. Vì vậy nơi đây không đơn giản được coi là điểm đến tham quan bình thường, mà còn là nơi để thế hệ trẻ Việt Nam nhìn về cội nguồn và những hy sinh mất mác của ông cha ta vì một đất nước Việt Nam độc lập-tự do-hạnh phúc.</t>
+  </si>
+  <si>
+    <t>12 Thạnh Xuân 52, Thạnh Xuân, Quận 12, TP.HCM</t>
+  </si>
+  <si>
+    <t>di tích, lịch sử, kháng chiến, Vườn Cau Đỏ, tưởng niệm</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>Moda House Coffee</t>
+  </si>
+  <si>
+    <t>là một điểm đến vô cùng lí tưởng với các tín đồ sống ảo và selfie. Quán được thiết kế theo phong cách vintage độc lạ, bắt mắt sẽ cho ra những bức ảnh đẹp lung linh. Ngoài ra không gian quán với tone màu nâu ấm áp, tạo cảm giác ấm cúng, lãng mạng rất phù hợp cho những buổi hẹn hò của các cặp đôi.</t>
+  </si>
+  <si>
+    <t>129 Thạnh Lộc 15, Quận 12, TP.HCM</t>
+  </si>
+  <si>
+    <t>cafe, vintage, sống ảo, Moda House, Quận 12</t>
+  </si>
+  <si>
+    <t>07h00 - 23h30</t>
+  </si>
+  <si>
+    <t>12.000 - 50.000 VNĐ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -847,16 +2440,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,19 +2779,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB04EF8-036A-4785-AF66-860F6DCB82E1}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="177.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,41 +2801,125 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1258,8 +2929,29 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1269,8 +2961,29 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1280,8 +2993,29 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1291,8 +3025,29 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1302,8 +3057,29 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1313,8 +3089,29 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1324,8 +3121,29 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1335,8 +3153,29 @@
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1346,1259 +3185,3834 @@
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>315</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J46" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J48" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J49" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J50" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J51" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J52" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J53" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J57" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J58" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J59" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J61" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J62" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J63" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J64" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J66" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J67" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J68" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J70" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J71" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J72" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J73" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J74" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="J75" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J76" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J77" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J78" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J79" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J80" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J81" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J82" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J83" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="J84" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J85" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J86" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="J87" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J88" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J89" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J90" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="J91" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J92" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J93" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J94" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="J95" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J96" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="J97" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J98" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J99" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J100" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J101" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="J102" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J103" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="J104" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J105" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="J106" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="J107" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J108" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J109" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J110" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J111" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J112" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="J113" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="J114" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J115" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="J116" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="J117" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="J118" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="J119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="J120" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J121" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J122" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J123" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="J124" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J125" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="J126" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J127" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="J128" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J129" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J130" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>254</v>
+      <c r="E131" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J131" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="J132" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
